--- a/data/case1/5/Q_device_5.xlsx
+++ b/data/case1/5/Q_device_5.xlsx
@@ -56,48 +56,48 @@
   <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="1" max="1" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.050768334976839795</v>
+        <v>0.0063612830445923078</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.050768335015792948</v>
+        <v>-0.0063612831469799392</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.02841774083845687</v>
+        <v>-0.029661300653364715</v>
       </c>
       <c r="B2" s="0">
-        <v>0.028417740781639538</v>
+        <v>0.029661300543289922</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.033508658918210775</v>
+        <v>0.046750399037914787</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.033508658951994882</v>
+        <v>-0.046750399097362984</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.016647313271269819</v>
+        <v>0.063032308168594398</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.016647313316068942</v>
+        <v>-0.063032308278751059</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.047521848844588627</v>
+        <v>-0.034866706185505317</v>
       </c>
       <c r="B5" s="0">
-        <v>0.047521848794958285</v>
+        <v>0.034866706026036864</v>
       </c>
     </row>
   </sheetData>
